--- a/Đo_An/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="4" sheetId="12" r:id="rId4"/>
     <sheet name="5" sheetId="13" r:id="rId5"/>
     <sheet name="6" sheetId="15" r:id="rId6"/>
-    <sheet name="7" sheetId="14" r:id="rId7"/>
-    <sheet name="8" sheetId="5" r:id="rId8"/>
-    <sheet name="4-old" sheetId="2" r:id="rId9"/>
-    <sheet name="3-old" sheetId="1" r:id="rId10"/>
-    <sheet name="5-old" sheetId="7" r:id="rId11"/>
-    <sheet name="6-old" sheetId="8" r:id="rId12"/>
-    <sheet name="7-old" sheetId="4" r:id="rId13"/>
-    <sheet name="9" sheetId="6" r:id="rId14"/>
+    <sheet name="7" sheetId="6" r:id="rId7"/>
+    <sheet name="8" sheetId="14" r:id="rId8"/>
+    <sheet name="9" sheetId="5" r:id="rId9"/>
+    <sheet name="4-old" sheetId="2" r:id="rId10"/>
+    <sheet name="3-old" sheetId="1" r:id="rId11"/>
+    <sheet name="5-old" sheetId="7" r:id="rId12"/>
+    <sheet name="6-old" sheetId="8" r:id="rId13"/>
+    <sheet name="7-old" sheetId="4" r:id="rId14"/>
     <sheet name="10" sheetId="3" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="562">
   <si>
     <t>nActi</t>
   </si>
@@ -473,15 +473,6 @@
     <t>z</t>
   </si>
   <si>
-    <t>Video minh họa mạch motor khởi động (có công tắc số)</t>
-  </si>
-  <si>
-    <t>Bài học từ video</t>
-  </si>
-  <si>
-    <t>Mạch motor khởi động thuộc dạng mạch gì?</t>
-  </si>
-  <si>
     <t>Song song</t>
   </si>
   <si>
@@ -491,21 +482,6 @@
     <t>Nối tiếp</t>
   </si>
   <si>
-    <t>Chức năng của relay trong mạch motor khởi động là gì?</t>
-  </si>
-  <si>
-    <t>Khuyếch đại công suất.</t>
-  </si>
-  <si>
-    <t>Điều khiển dòng điện cao của motor với dòng điện thấp.</t>
-  </si>
-  <si>
-    <t>Giảm tải cho acquy.</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c9\\wiring_final.PNG</t>
-  </si>
-  <si>
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\Dopen.png</t>
   </si>
   <si>
@@ -521,123 +497,16 @@
     <t>\\Resources\\Hinh anh cac chuong\\hinh anh c7\\Copen.png</t>
   </si>
   <si>
-    <t>Linh kiện nào nằm trên nhánh điều khiển (nhánh xanh) ?</t>
-  </si>
-  <si>
-    <t>Công tắc P/N, Relay Khởi động, Công tắc khởi động</t>
-  </si>
-  <si>
-    <t>Relay khởi động, Motor khởi động</t>
-  </si>
-  <si>
-    <t>Công tắc khởi động</t>
-  </si>
-  <si>
-    <t>Linh kiện nào sẽ hoạt động nhiều nhất trong mạch?</t>
-  </si>
-  <si>
-    <t>Cuộn relay</t>
-  </si>
-  <si>
-    <t>Motor khởi động</t>
-  </si>
-  <si>
-    <t>Công tắc P/N</t>
-  </si>
-  <si>
-    <t>Linh kiện nào nằm trên nhánh thực hiện công ? (nhánh đỏ)</t>
-  </si>
-  <si>
-    <t>Công tắc P/N và công tắc khởi động</t>
-  </si>
-  <si>
-    <t>Relay khởi động và motor khởi động</t>
-  </si>
-  <si>
-    <t>Công tắc P/N và Relay khởi động</t>
-  </si>
-  <si>
-    <t>Chẩn đoán mạch bằng cách thực hiện fault sau:
-Tạo một lỗi hở mạch tại điểm J.</t>
-  </si>
-  <si>
-    <t>Với lỗi trên, liệu khi đóng công tắc số tại vị trí J, relay có hoạt động không ?</t>
-  </si>
-  <si>
     <t>Khác</t>
   </si>
   <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c9\\J open.PNG</t>
-  </si>
-  <si>
-    <t>Chuyển công tắc số sang vị trí K, mạch hoạt động như thế nào?</t>
-  </si>
-  <si>
-    <t>Không hoạt động.</t>
-  </si>
-  <si>
-    <t>Relay hoạt động và motor chạy.</t>
-  </si>
-  <si>
-    <t>Công tắc relay nhảy nhưng motor không chạy.</t>
-  </si>
-  <si>
-    <t>\\Resources\\Hinh anh cac chuong\\hinh anh c9\\D open.PNG</t>
-  </si>
-  <si>
-    <t>Nối lại dây ở vị trí J của công tắc số P/N. Tạo 1 lỗi hở mạch khác bằng cách hở mạch motor khởi động tại công tắc relay. (ngắt dây dẫn tại D). Vận hành mạch và quan sát.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công tắc relay có nhảy không? </t>
-  </si>
-  <si>
-    <t>Sử dụng phương pháp đo thông mạch để xác định vị trí của vấn đề, sự dụng đồng hồ đo Ohm hoặc testlight có nguồn sẵn.</t>
-  </si>
-  <si>
-    <t>Nối lại dây ở vị trí D. 
-Phần mềm đã thêm một fault vào trong mạch. Xác định vị trí lỗi bằng phương pháp check hở mạch hoặc check điện áp.</t>
-  </si>
-  <si>
     <t>Lỗi là ?</t>
   </si>
   <si>
-    <t>Hở mạch</t>
-  </si>
-  <si>
-    <t>Ngắn mạch tới mass</t>
-  </si>
-  <si>
-    <t>Điện trở cao</t>
-  </si>
-  <si>
-    <t>Cuộn dây relay bị hở #9</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>Bạn hẳn đã tìm được lỗi là mạch bị hở tại cuộn dây relay (linh kiện #9).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Một lỗi khác đã được thêm vào trong mạch. </t>
-  </si>
-  <si>
-    <t>Hãy vận hành mạch và cho biết, phương pháp kiểm tra nào sau đây là phù hợp nhất để xác định vấn đề khi mạch đang hoạt động ?</t>
-  </si>
-  <si>
-    <t>Đo điện áp rơi.</t>
-  </si>
-  <si>
-    <t>Đo thông mạch.</t>
-  </si>
-  <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>relay có HR #9</t>
-  </si>
-  <si>
-    <t>Bạn hẳn đã tìm được lỗi là cuộn dây relay có điện trở cao (linh kiện #9).</t>
   </si>
   <si>
     <t>26</t>
@@ -1643,52 +1512,6 @@
 Khi bơm quay, nhiên liệu được bơm lên, lượng nhiên liệu này có một áp suất nhất định. 
 Áp suất này giúp nhiên liệu được phun gián đoạn vào đường ống nạp khi van kim mở và phun có chu kỳ.
 Nhiên liệu do bơm cung cấp có áp suất khoảng 3,5 đến 6,0 kg/cm2, nhưng áp suất nhiên liệu trong hệ thống khoảng 2,7 đến 3,2 kg/cm2 do sự khống chế bởi bộ điều áp.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Động cơ điện</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- Sử dụng động cơ DC 12 vôn để dẫn động bơm, stator là các nam châm vĩnh cửu. Khi cung cấp điện 12 vôn, rotor sẽ quay và kéo bơm quay theo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Bơm rotor kiểu con lăn </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Cung cấp dòng điện 12 vôn cho động cơ, đĩa bơm sẽ quay thông qua sự kéo của rotor làm cho 5 con lăn ép sát vào vỏ bơm bởi lực ly tâm.
-Bơm nén nhiên liệu đi qua khe hở giữa rotor và stator của động cơ điện, áp suất nhiên liệu đẩy van một chiều mở và nhiên liệu được cung cấp vào hệ thống. 
-Khi áp suất nhiên liệu vượt quá quy định, van an toàn mở cho nhiên liệu thoát trở lại thùng chứa để tránh vở đường ống cũng như hư hỏng bơm. </t>
     </r>
   </si>
   <si>
@@ -2514,21 +2337,6 @@
     <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\8.PNG</t>
   </si>
   <si>
-    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\9.PNG</t>
-  </si>
-  <si>
-    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\10.PNG</t>
-  </si>
-  <si>
-    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\11.PNG</t>
-  </si>
-  <si>
-    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\12.PNG</t>
-  </si>
-  <si>
-    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c7\\13.PNG</t>
-  </si>
-  <si>
     <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c1\\12.PNG</t>
   </si>
   <si>
@@ -2690,7 +2498,476 @@
     <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\3.PNG</t>
   </si>
   <si>
-    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\.PNG</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bơm động cơ điện</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Sử dụng động cơ DC 12 vôn để dẫn động bơm, stator là các nam châm vĩnh cửu. Khi cung cấp điện 12 vôn, rotor sẽ quay và kéo bơm quay theo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bơm rotor kiểu con lăn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Cung cấp dòng điện 12 vôn cho động cơ, đĩa bơm sẽ quay thông qua sự kéo của rotor làm cho 5 con lăn ép sát vào vỏ bơm bởi lực ly tâm.
+Bơm nén nhiên liệu đi qua khe hở giữa rotor và stator của động cơ điện, áp suất nhiên liệu đẩy van một chiều mở và nhiên liệu được cung cấp vào hệ thống. 
+Khi áp suất nhiên liệu vượt quá quy định, van an toàn mở cho nhiên liệu thoát trở lại thùng chứa để tránh vỡ đường ống cũng như hư hỏng bơm. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3: Bộ dập dao động</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Bộ dập dao động bố trí trên ống phân phối </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Cấu tạo gồm hai phần chính là một màng và một lò xo. 
+Bộ dập dao động bố trí trên ống phân phối để hấp thụ các xung dao động áp suất nhiên liệu do sự đóng mở nhanh chóng của các kim phun. 
+Khi áp suất gia tăng, màng nén lò xo một chút làm tăng thể tích trong ống phân phối, điều này ngăn chặn sự gia tăng áp suất nhiên liệu.
+Khi áp suất giảm, lò xo đẩy nhẹ màng đi xuống làm giảm nhẹ thể tích chứa nhiên liệu ở trong đường ống phân phối để ngăn chặn sự giảm áp suất. </t>
+    </r>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c3\\3.PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 4: Bộ điều áp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Bộ điều áp đặt trên ống phân phối </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Bộ điều áp dùng để giữ cho áp suất phun của kim phun là không đổi.
+Bộ điều áp sẽ được chia thành hai buồng và ngăn cách bởi màng cao su. Buồng chứa nhiên liệu và van điều áp nằm phía trên, buồng ở dưới chứa lò xo và được tác động bởi độ chân không sau bướm ga.
+Khi cánh bướm ga mở nhỏ, độ chân không sau cánh bướm ga lớn, độ chân không này tác động lên màng bộ điều áp làm màng đi xuống, van điều áp mở lớn, lượng nhiên liệu thoát về thùng chứa nhiên liệu nhiều hơn nên áp suất trong ống phấn phối giảm và ngược lại</t>
+    </r>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c4\\2.PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bài 5: Kim phun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Kim phun có cấu tạo gồm một thân và một van kim đặt trong ống từ. Thân kim phun chứa một cuộn dây, khi không có dòng điện cung cấp cho cuộn dây, lò xo đẩy van kim vào đế của nó. Khi nam châm điện được tác động, van kim nâng lên khỏi bệ van khoảng 0.1mm và nhiên liệu được phun ra khỏi kim phun nhờ áp suất nhiên liệu trong hệ thống trong thời gian khoảng 1ms đến 1,5ms. 
+Đầu của kim phun được bố trí trong đường ống nạp qua trung gian của các vòng đệm cao su để cách nhiệt, giảm rung động cho kim phun và không cho không khí lọt vào trong đường ống nạp. 
+Đuôi kim phun được gá vào ống phân phối qua một vòng đệm làm kín để tránh sự rò rỉ của nhiên liệu.
+Các kim phun được lắp trên ống phân phối, phải đảm bảo sự cách nhiệt cho các kim phun để tránh tạo bọt xăng, hơi trong kim phun và để góp phần vào sự cải thiện sự hoạt động của động cơ khi khởi động nóng. </t>
+    </r>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c5\\10.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c6\\3.PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bài 6: Kim phun khởi động lạnh
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kim phun khởi động lạnh được thiết kế bổ sung cho các động cơ hoạt động ở vùng khí hậu lạnh. Kim phun khởi động lạnh có điện trở thấp và nó được bố trí ở đường nạp. Lỗ phun nhiên liệu được thiết kế đặc biệt để đảm bảo phun sương ở số vòng quay thấp
+Kim phun khởi động lạnh chỉ hoạt động khi được thỏa mãn hai điều kiện sau.
+• Khi khởi động động cơ. 
+• Khi nhiệt độ của nước làm mát dưới 300C. 
+Có hai phương pháp dẫn động kim phun. 
+• Dùng contact nhiệt thời gian. 
+• Dùng contact nhiệt thời gian và ECU để điều khiển.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 7: Bobin Đánh Lửa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Bô bin hay bôbin (bobine) là một bộ phận thuộc hệ thống đánh lửa của xe ô tô có nhiệm vụ sinh ra các dòng điện cao áp giúp bugi phóng tia lửa điện để đốt cháy hỗn hợp hòa khí trong buồng đốt của động cơ.
+Quá trình đốt cháy này sẽ tạo ra áp suất đẩy piston dịch chuyển và truyền lực cho trục khuỷu để sinh công.</t>
+    </r>
+  </si>
+  <si>
+    <t>Bô bin được thiết kế để hoạt động như một biến áp, có nhiệm vụ sinh ra cao áp để tạo tia lửa.
+Khi nổ máy động cơ, ECU động cơ sẽ phát ra tín hiệu thời điểm đánh lửa. Lúc này, ắc quy sẽ cho dòng điện chạy qua IC rồi đi vào cuộn sơ cấp để hình thành các đường sức từ.
+Tiếp đó, IC nhanh chóng ngắt dòng điện để giảm từ thông, tạo ra sức điện động theo chiều chống lại sự giảm từ thông đó. Lúc này, cuộn thứ cấp cũng tạo ra một sức điện động khoảng 30kV, truyền tới bugi để hình thành tia lửa điện.
+Bởi vì số vòng của cuộn thứ cấp nhiều gấp trăm lần so với cuộn sơ cấp nên sức điện động sinh ra bởi cuộn thứ cấp sẽ rất lớn. Ngoài ra, dòng điện trong cuộn sơ cấp càng lớn thì điện thế của cuộn thứ cấp cũng càng lớn.</t>
+  </si>
+  <si>
+    <t>Cấu tạo của bô bin Bô bin đánh lửa trên ô tô được cấu tạo từ 3 thành phần chính, gồm: 
+Lõi sắt nằm giữa bôbin, được chèn chặt trong ống carton cách điện.
+Cuộn dây sơ cấp quấn quanh lõi sắt, đầu dây được nối với ắc quy và IC đánh lửa. 
+- Cuộn dây thứ cấp cũng quấn quanh lõi sắt với số lượng nhiều hơn cuộn sơ cấp gấp 100 lần. Đầu dây thứ cấp được nối với ắc quy và bugi.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hệ thống đánh lửa dùng bộ chia điện</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Đối với hệ thống đánh lửa dùng bộ chia điện, các cảm biến G và Ne được bố trí bên trong bộ chia điện (Delco). 
+Khi động cơ hoạt động, trục delco quay truyền động cho các cảm biến hoạt động, tín hiệu G và Ne được gửi về ECU để tính toán thời điểm đánh lửa.Lúc này, ECU sinh ra tín hiệu IGT khiển transistor công suất mở, có dòng điện đi qua cuộn sơ cấp bobin như sau: 
+Dương ắc quy→ Cầu chì chính → Contact máy → Dương bobin → Cuộn sơ cấp → Âm bobin → Transistor công suất → Mass.
+Khi tín hiệu IGT mất, transistor công suất đóng, dòng điện qua cuộn sơ mất tạo ra sự thay đổi từ thông trong cuộn sơ làm cảm ứng trong cuộn thứ một sức điện động khoảng 40kV. Điện áp này được dẫn đến rotor của bộ chia điện qua dây cao áp truyền đến bugi để thực hiện đánh lửa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hệ thống đánh lửa không bộ chia điện (DLI)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vì không sử dụng bộ chia điện nên cảm biến G được bố trí trên nắp máy lấy tín hiệu chuyển động của trục cam, cảm biến Ne được bố trí ở đầu hoặc đuôi trục khuỷu.
+Hệ thống đánh lửa không bộ chia điện dùng một bobin đánh lửa cho hai xy lanh có piston song hành. 
+Khi có tín hiệu IGT1 gửi về transistor công suất ở cực IB1 , transistor 1 mở và có dòng điện qua cuộn sơ của bobin 1 như sau:
+Dương ắc quy → Contact máy → Dương cuộn sơ → Âm cuộn sơ → Cực OC1 → Transistor 1 → Cực G → Mass . Khi tín hiệu IGT1 mất tạo ra sự thay đổi từ thông trong cuộn sơ sinh ra điện áp cao trong cuộn thứ thực hiện đánh lửa cho xy lanh 1 và 4. Xy lanh 1 ở kỳ nén nó sẽ nổ, xy lanh 4 ở kỳ thải nên không nổ.
+Như vậy, trong một chu kỳ làm việc của động cơ mỗi xy lanh có 2 tia lửa điện cao áp, đây cũng là khuyết điểm của hệ thống đánh lửa DLI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hệ thống đánh lửa trực tiếp
+Bố trí Igniter hoặc transistor công suất đặt ngoài
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi contact máy On có nguồn +12 vôn cung cấp cho mỗi bobin và cung cấp về ECU ở cực +B.
+Khi có tín hiệu từ cảm biến vị trí trục cam và cảm biến vị trí trục khuỷu gửi về ECU, ECU cho ra 4 tín hiệu IGT trong một chu kỳ , mỗi tín hiệu cách nhau một góc 180°, điều khiển 4 transistor trong Igniter để có 4 tia lửa điện cao áp trong một chu kỳ làm việc của động cơ. 
+Tín hiệu IGF từ Igniter gửi về ECU. Do sử dụng là Igniter nên có nguồn 12 vôn cung cấp cho Igniter ở cực B.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hệ thống đánh lửa trực tiếp
+Bố trí Igniter hoặc transistor tích hợp trong bobin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Xét trường hợp tổng quát cho hãng Toyota: Các hãng còn lại không có cực F.
+Khi contact On, có nguồn 12 vôn cung cấp cho mỗi bộ bin ở cực B và có nguồn cung cấp cho ECU ở cực + B . Các cực F mỗi bộ bin nối chung lại với nhau và nối về ECU ở cực IGF.
+Khi có tín hiệu cảm biến vị trí trục cam và cảm biến vị trí trục khuỷu gửi về ECU , ECU cho ra 4 tín hiệu IGT cách nhau 180° để điều khiển đánh lửa cho 4 bobin theo thứ tự công tác 1-3-4-2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hệ thống đánh lửa trực tiếp
+Bố trí Igniter hoặc transistor tích hợp trong ECU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Khi contact On, có nguồn 12V cung cấp đến cực dương bobin và có nguồn 12V cung cấp cho ECU ở cực +B từ rơ le chính.
+Khi động cơ hoạt động, có tín hiệu cảm biến vị trí trục cam và cảm biến vị trí trục khuỷu gửi về ECU. ECU cho ra 4 tín hiệu IGT cách nhau 180° để điều khiển 4 transistor công suất trong ECU để thực hiện đánh lửa cho 4 xy lanh theo thứ tự công tác 1-3-4-2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bài 8: Hệ thống điều khiển tốc độ cầm chừng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Người ta sử dụng van ISC để điều khiển tốc độ cầm chừng hoặc sử dụng mô tơ điều khiển bướm ga. 
+Tốc độ cầm chừng được điều khiển bằng cách thay đổi lượng không khí nạp vào động cơ ở tốc độ cầm chừng.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\6.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\7.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\8.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\9.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\10.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\11.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\12.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\13.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c8\\14.PNG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bài 9: Hệ thống điều khiển bướm ga điện tử
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hệ thống điều khiển bướm ga bằng điện tử là hệ thống điều khiển góc mở bướm ga theo sự điều khiển từ ECU sao cho phù hợp với góc đạp bàn đạp ga của người lái xe. Góc mở bướm ga dùng để tính toán lượng không khí nạp vào động cơ.
+ECU điều khiển motor để xoay cánh bướm ga và tín hiệu hồi tiếp từ cảm biến bướm ga gửi về ECU.</t>
+    </r>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c9\\1.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c9\\2.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c9\\3.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c9\\4.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c9\\5.PNG</t>
+  </si>
+  <si>
+    <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c9\\6.PNG</t>
   </si>
 </sst>
 </file>
@@ -2861,7 +3138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2930,8 +3207,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3250,8 +3533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3269,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -3299,7 +3582,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
@@ -3310,10 +3593,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -3348,10 +3631,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>527</v>
+        <v>482</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -3386,10 +3669,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>528</v>
+        <v>483</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>489</v>
+        <v>446</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -3424,10 +3707,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -3451,7 +3734,7 @@
         <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>486</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
@@ -3462,10 +3745,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -3500,10 +3783,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>530</v>
+        <v>486</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -3538,10 +3821,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -3576,10 +3859,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>532</v>
+        <v>488</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -3614,10 +3897,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -3652,10 +3935,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>534</v>
+        <v>490</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -3690,10 +3973,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>535</v>
+        <v>491</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
@@ -3717,7 +4000,7 @@
         <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>14</v>
@@ -3731,10 +4014,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
@@ -3758,7 +4041,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>14</v>
@@ -3791,6 +4074,876 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="14.21875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
@@ -3846,21 +4999,21 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -3886,20 +5039,20 @@
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="38"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -3925,20 +5078,20 @@
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="38"/>
+      <c r="P3" s="39"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
@@ -3964,20 +5117,20 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="38"/>
+      <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
@@ -4006,10 +5159,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
@@ -4038,10 +5191,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
@@ -4070,10 +5223,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
@@ -4102,10 +5255,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
@@ -4134,7 +5287,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>98</v>
@@ -4143,16 +5296,16 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>14</v>
@@ -4166,10 +5319,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
@@ -4190,10 +5343,10 @@
         <v>14</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -4201,31 +5354,31 @@
         <v>26</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -4233,31 +5386,31 @@
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -4265,31 +5418,31 @@
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -4297,10 +5450,10 @@
         <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -4321,7 +5474,7 @@
         <v>14</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -4329,31 +5482,31 @@
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4361,31 +5514,31 @@
         <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4393,31 +5546,31 @@
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4425,31 +5578,31 @@
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4457,10 +5610,10 @@
         <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
@@ -4481,7 +5634,7 @@
         <v>14</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4489,28 +5642,28 @@
         <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>14</v>
@@ -4521,10 +5674,10 @@
         <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
@@ -4553,10 +5706,10 @@
         <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
@@ -4585,7 +5738,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>98</v>
@@ -4594,19 +5747,19 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>14</v>
@@ -4617,10 +5770,10 @@
         <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
@@ -4646,13 +5799,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
@@ -4673,50 +5826,50 @@
         <v>14</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>13</v>
@@ -4742,13 +5895,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
@@ -4774,28 +5927,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>14</v>
@@ -4806,28 +5959,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>13</v>
@@ -4838,28 +5991,28 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>14</v>
@@ -4870,13 +6023,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>13</v>
@@ -4902,13 +6055,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>13</v>
@@ -4934,13 +6087,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>405</v>
+        <v>362</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>13</v>
@@ -4966,28 +6119,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>406</v>
+        <v>363</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>14</v>
@@ -4998,28 +6151,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>415</v>
+        <v>372</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>416</v>
+        <v>373</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>14</v>
@@ -5055,7 +6208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -5074,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -5112,10 +6265,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -5147,25 +6300,25 @@
         <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
@@ -5182,25 +6335,25 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>13</v>
@@ -5217,25 +6370,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>13</v>
@@ -5252,25 +6405,25 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>12</v>
@@ -5287,10 +6440,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -5322,10 +6475,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -5357,10 +6510,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -5392,10 +6545,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -5427,10 +6580,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
@@ -5454,31 +6607,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="193.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="180" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="4" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>12</v>
@@ -5487,31 +6640,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="180" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>12</v>
@@ -5526,25 +6679,25 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="4" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>14</v>
@@ -5559,10 +6712,10 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="4" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>13</v>
@@ -5592,10 +6745,10 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="4" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>13</v>
@@ -5625,10 +6778,10 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>13</v>
@@ -5658,34 +6811,34 @@
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="4" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -5694,10 +6847,10 @@
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="4" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>13</v>
@@ -5727,10 +6880,10 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="4" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>13</v>
@@ -5760,10 +6913,10 @@
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="4" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>13</v>
@@ -5793,10 +6946,10 @@
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="4" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>13</v>
@@ -5826,10 +6979,10 @@
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>13</v>
@@ -5859,10 +7012,10 @@
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="4" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>13</v>
@@ -5892,10 +7045,10 @@
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="4" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>13</v>
@@ -5921,29 +7074,29 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>14</v>
@@ -5954,14 +7107,14 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>13</v>
@@ -5987,14 +7140,14 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>13</v>
@@ -6020,14 +7173,14 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>13</v>
@@ -6053,89 +7206,89 @@
     </row>
     <row r="30" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="4" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="J31" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>100</v>
@@ -6144,25 +7297,25 @@
         <v>101</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="4" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>13</v>
@@ -6224,7 +7377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -6275,10 +7428,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>13</v>
@@ -6307,10 +7460,10 @@
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>13</v>
@@ -6339,25 +7492,25 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>14</v>
@@ -6371,25 +7524,25 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>13</v>
@@ -6403,25 +7556,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>14</v>
@@ -6435,10 +7588,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>13</v>
@@ -6465,22 +7618,22 @@
         <v>22</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>107</v>
@@ -6497,25 +7650,25 @@
         <v>23</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>14</v>
@@ -6529,25 +7682,25 @@
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>12</v>
@@ -6561,25 +7714,25 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>14</v>
@@ -6593,10 +7746,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>13</v>
@@ -6617,10 +7770,10 @@
         <v>14</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6628,10 +7781,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>13</v>
@@ -6660,25 +7813,25 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>12</v>
@@ -6692,25 +7845,25 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>13</v>
@@ -6724,10 +7877,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>13</v>
@@ -6756,10 +7909,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>13</v>
@@ -6788,10 +7941,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>13</v>
@@ -6820,10 +7973,10 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>13</v>
@@ -6844,10 +7997,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6855,34 +8008,34 @@
         <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -6890,25 +8043,25 @@
         <v>78</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>14</v>
@@ -6947,7 +8100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -7126,7 +8279,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>96</v>
@@ -7158,7 +8311,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>97</v>
@@ -7190,7 +8343,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>98</v>
@@ -7292,7 +8445,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>111</v>
@@ -7327,7 +8480,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>112</v>
@@ -7359,7 +8512,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>117</v>
@@ -7391,7 +8544,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>118</v>
@@ -7423,7 +8576,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>119</v>
@@ -7487,7 +8640,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>121</v>
@@ -7519,7 +8672,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>122</v>
@@ -7551,7 +8704,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>125</v>
@@ -7578,12 +8731,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>127</v>
@@ -7615,7 +8768,7 @@
         <v>78</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>128</v>
@@ -7679,7 +8832,7 @@
         <v>80</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>131</v>
@@ -7738,529 +8891,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="13.6640625" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
-        <v>2</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="22">
-        <v>1</v>
-      </c>
-      <c r="E2" s="22">
-        <v>0</v>
-      </c>
-      <c r="F2" s="22">
-        <v>0</v>
-      </c>
-      <c r="G2" s="22">
-        <v>0</v>
-      </c>
-      <c r="H2" s="22">
-        <v>0</v>
-      </c>
-      <c r="I2" s="22">
-        <v>0</v>
-      </c>
-      <c r="J2" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
-        <v>3</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="22">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="22">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
-        <v>4</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="22">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="I4" s="22">
-        <v>1</v>
-      </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="22">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="I5" s="22">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="I6" s="22">
-        <v>1</v>
-      </c>
-      <c r="J6" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="I7" s="22">
-        <v>1</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" s="22">
-        <v>1</v>
-      </c>
-      <c r="J8" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="I9" s="22">
-        <v>1</v>
-      </c>
-      <c r="J9" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="22">
-        <v>0</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="I10" s="22">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="22">
-        <v>1</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0</v>
-      </c>
-      <c r="F11" s="22">
-        <v>0</v>
-      </c>
-      <c r="G11" s="22">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
-        <v>0</v>
-      </c>
-      <c r="I11" s="22">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="I12" s="22">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="22">
-        <v>1</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0</v>
-      </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="22">
-        <v>0</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="D15" s="22">
-        <v>1</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0</v>
-      </c>
-      <c r="F15" s="22">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
-        <v>0</v>
-      </c>
-      <c r="I15" s="22">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
@@ -8467,7 +9097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="360" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="324" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -8499,7 +9129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="360" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="324" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -9134,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -9168,7 +9798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="249" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="221.4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -9176,10 +9806,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>566</v>
+        <v>516</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -9223,10 +9853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9242,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -9272,7 +9902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -9280,10 +9910,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -9307,7 +9937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="111" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -9315,10 +9945,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
@@ -9342,11 +9972,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="1:11" ht="111" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9355,8 +10017,10 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -9365,7 +10029,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9381,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -9411,7 +10075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -9419,10 +10083,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -9446,8 +10110,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9458,6 +10157,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9465,10 +10165,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9484,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -9514,7 +10214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="152.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -9522,10 +10222,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -9549,7 +10249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="152.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -9557,15 +10257,15 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="18" t="s">
@@ -9584,7 +10284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -9592,10 +10292,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>507</v>
+        <v>497</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>461</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -9619,7 +10319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
@@ -9627,10 +10327,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>508</v>
+        <v>498</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>462</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>13</v>
@@ -9654,7 +10354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
@@ -9662,15 +10362,15 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>503</v>
+        <v>499</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>463</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="18" t="s">
@@ -9689,7 +10389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -9697,15 +10397,15 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>509</v>
+        <v>500</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>458</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="18" t="s">
@@ -9724,42 +10424,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>546</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>504</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -9767,10 +10467,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -9794,7 +10494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -9802,10 +10502,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -9831,6 +10531,41 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9845,6 +10580,7 @@
     <hyperlink ref="C8" r:id="rId7"/>
     <hyperlink ref="C9" r:id="rId8"/>
     <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9852,10 +10588,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9871,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -9909,10 +10645,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>549</v>
+        <v>504</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
@@ -9936,7 +10672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="138.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="180" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -9944,15 +10680,15 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>512</v>
+        <v>466</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="18" t="s">
@@ -9971,37 +10707,492 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="13.6640625" style="21"/>
+    <col min="4" max="4" width="54.88671875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="50.44140625" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="13.6640625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="288" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="216" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="216" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10017,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -10047,7 +11238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -10055,10 +11246,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
@@ -10082,55 +11273,55 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="111" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -10152,20 +11343,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="111" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="E5" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="18" t="s">
@@ -10174,10 +11365,10 @@
       <c r="G5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="18" t="s">
@@ -10187,7 +11378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="111" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -10195,10 +11386,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>13</v>
@@ -10209,10 +11400,10 @@
       <c r="G6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="18" t="s">
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="18" t="s">
@@ -10222,7 +11413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="111" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -10230,10 +11421,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -10257,7 +11448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="83.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -10265,10 +11456,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -10292,7 +11483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="400.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -10300,10 +11491,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>13</v>
@@ -10311,7 +11502,7 @@
       <c r="F9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="18" t="s">
@@ -10327,7 +11518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="331.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="400.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -10335,10 +11526,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>13</v>
@@ -10362,7 +11553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="331.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -10370,18 +11561,18 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="34" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="18" t="s">
@@ -10397,23 +11588,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="221.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -10432,23 +11623,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="221.4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="18" t="s">
@@ -10467,7 +11658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="318" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="276.60000000000002" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -10475,10 +11666,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>13</v>
@@ -10502,23 +11693,45 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="318" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
       <c r="B16" s="18"/>
       <c r="D16" s="19"/>
       <c r="E16" s="18"/>
@@ -10574,8 +11787,8 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
@@ -10587,19 +11800,20 @@
     <hyperlink ref="C12" r:id="rId11"/>
     <hyperlink ref="C13" r:id="rId12"/>
     <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10643,15 +11857,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="207.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="111" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>13</v>
@@ -10675,15 +11889,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="111" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="207.6" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>568</v>
+        <v>517</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>13</v>
@@ -10712,10 +11926,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>569</v>
+        <v>518</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>13</v>
@@ -10739,15 +11953,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="152.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="111" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>570</v>
+        <v>519</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>13</v>
@@ -10771,42 +11985,62 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="138.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="152.4" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="E6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="138.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -10849,878 +12083,9 @@
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="14.21875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Đo_An/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
+++ b/Đo_An/HoanThanhDangNhap/bin/Debug/nhucc/Du lieu cau hoi/thu vien bai hoc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án tốt nghiệp\doantn\dinh\Loz\Do_AN\TruaNgay18New1\student_add bai hoc\HoanThanhDangNhap\bin\Debug\nhucc\Du lieu cau hoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đăng_Quý_UTE_K19\Dang_Quy_UTE_k19\Đo_An\HoanThanhDangNhap\bin\Debug\nhucc\Du lieu cau hoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2461996F-0CBE-4ACA-9FBA-F6E96FCADBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="563">
   <si>
     <t>nActi</t>
   </si>
@@ -2969,11 +2970,14 @@
   <si>
     <t>\\nhucc\\Hinh anh cac chuong\\hinh anh c9\\6.PNG</t>
   </si>
+  <si>
+    <t>ENDEND</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3210,11 +3214,11 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3530,11 +3534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4055,18 +4059,18 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C5" r:id="rId12"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -4074,7 +4078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4944,7 +4948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4999,11 +5003,11 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -5039,10 +5043,10 @@
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="39"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -5078,10 +5082,10 @@
       <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="39"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -5117,10 +5121,10 @@
       <c r="N4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="39"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -6195,13 +6199,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png"/>
-    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
-    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif"/>
+    <hyperlink ref="B6" r:id="rId1" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId4" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
+    <hyperlink ref="B12" r:id="rId5" display="\\Resources\\mach c6.png" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" display="\\Resources\\hinh anh c6\\relay working animation.gif" xr:uid="{00000000-0004-0000-0A00-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -6209,7 +6213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6607,7 +6611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="180" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="193.8" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="166.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="180" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -7347,30 +7351,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C12" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C18" r:id="rId13"/>
-    <hyperlink ref="C19" r:id="rId14"/>
-    <hyperlink ref="C20" r:id="rId15"/>
-    <hyperlink ref="C21" r:id="rId16"/>
-    <hyperlink ref="C22" r:id="rId17"/>
-    <hyperlink ref="C24" r:id="rId18"/>
-    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png"/>
-    <hyperlink ref="C30" r:id="rId20"/>
-    <hyperlink ref="C31" r:id="rId21"/>
-    <hyperlink ref="C32" r:id="rId22"/>
-    <hyperlink ref="C33" r:id="rId23"/>
-    <hyperlink ref="C2" r:id="rId24"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0B00-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0B00-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0B00-00000B000000}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-0B00-00000C000000}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0B00-00000D000000}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0B00-00000E000000}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0B00-00000F000000}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0B00-000010000000}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0B00-000011000000}"/>
+    <hyperlink ref="C25" r:id="rId19" display="\\Resources\\Hinh anh cac chuong\\hinh anh c5\\short2ground.png" xr:uid="{00000000-0004-0000-0B00-000012000000}"/>
+    <hyperlink ref="C30" r:id="rId20" xr:uid="{00000000-0004-0000-0B00-000013000000}"/>
+    <hyperlink ref="C31" r:id="rId21" xr:uid="{00000000-0004-0000-0B00-000014000000}"/>
+    <hyperlink ref="C32" r:id="rId22" xr:uid="{00000000-0004-0000-0B00-000015000000}"/>
+    <hyperlink ref="C33" r:id="rId23" xr:uid="{00000000-0004-0000-0B00-000016000000}"/>
+    <hyperlink ref="C2" r:id="rId24" xr:uid="{00000000-0004-0000-0B00-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -7378,7 +7382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8078,30 +8082,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
-    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B16" r:id="rId12"/>
-    <hyperlink ref="B17" r:id="rId13"/>
-    <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="B19" r:id="rId15"/>
-    <hyperlink ref="B20" r:id="rId16"/>
-    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" display="\\Resources\Hinh anh cac chuong\hinh anh c6\wiring_final.png" xr:uid="{00000000-0004-0000-0C00-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0C00-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0C00-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0C00-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0C00-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0C00-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0C00-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0C00-00000F000000}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0C00-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -8867,24 +8871,24 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B21" r:id="rId16"/>
-    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG"/>
-    <hyperlink ref="B23" r:id="rId18"/>
+    <hyperlink ref="B3" r:id="rId1" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0D00-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-0D00-00000B000000}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-0D00-00000C000000}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0D00-00000D000000}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0D00-00000E000000}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0D00-00000F000000}"/>
+    <hyperlink ref="B22" r:id="rId17" display="\\Resources\\Hinh anh cac chuong\\hinh anh c7\\wiring_final.PNG" xr:uid="{00000000-0004-0000-0D00-000010000000}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0D00-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -8892,7 +8896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -9713,30 +9717,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="B22" r:id="rId19"/>
-    <hyperlink ref="B23" r:id="rId20"/>
-    <hyperlink ref="B24" r:id="rId21"/>
-    <hyperlink ref="B25" r:id="rId22"/>
-    <hyperlink ref="B21" r:id="rId23"/>
-    <hyperlink ref="B18" r:id="rId24"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0E00-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0E00-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0E00-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0E00-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0E00-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0E00-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0E00-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0E00-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0E00-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0E00-00000F000000}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{00000000-0004-0000-0E00-000010000000}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{00000000-0004-0000-0E00-000011000000}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0E00-000012000000}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0E00-000013000000}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0E00-000014000000}"/>
+    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0E00-000015000000}"/>
+    <hyperlink ref="B21" r:id="rId23" xr:uid="{00000000-0004-0000-0E00-000016000000}"/>
+    <hyperlink ref="B18" r:id="rId24" xr:uid="{00000000-0004-0000-0E00-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
@@ -9744,11 +9748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9798,7 +9802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="221.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="249" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
@@ -9844,7 +9848,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9852,7 +9856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -10015,9 +10019,9 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -10025,7 +10029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -10156,19 +10160,19 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10529,7 +10533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -10571,23 +10575,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10749,9 +10753,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -10759,7 +10763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10999,7 +11003,7 @@
       <c r="D7" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>541</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -11173,14 +11177,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -11188,10 +11192,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -11787,20 +11791,20 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>
@@ -11808,12 +11812,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12039,7 +12043,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>28</v>
+        <v>562</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -12078,12 +12082,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
